--- a/artfynd/A 52471-2025 artfynd.xlsx
+++ b/artfynd/A 52471-2025 artfynd.xlsx
@@ -5356,7 +5356,7 @@
         <v>130063357</v>
       </c>
       <c r="B42" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
